--- a/03_Catalogo_Productos.xlsx
+++ b/03_Catalogo_Productos.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,13 +437,16 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="50" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -464,32 +467,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tipo</t>
+          <t>Colores Asociados</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Paleta de Colores</t>
+          <t>Flores Asociadas</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad Flores</t>
+          <t>Tipos Macetero Posibles</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Vista (360/180)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tamaño (cm)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Precio Venta</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cuidados</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Foto</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Disponible en Shopify</t>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Disponible Shopify</t>
         </is>
       </c>
     </row>
@@ -511,28 +529,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Con Florero</t>
+          <t>Rojo, Verde oscuro, Burdeo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rojo, Verde</t>
+          <t>Rosa roja, Clavel rojo, Eucalipto</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+          <t>Florero vidrio cilíndrico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>25 x 35</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>35000</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cambiar agua cada 2 días, evitar luz directa, cortar tallos en diagonal</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>passion-roja.jpg</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
@@ -556,28 +589,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Con Florero</t>
+          <t>Blanco, Verde claro</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Blanco, Verde</t>
+          <t>Rosa blanca, Lirio blanco, Gerbera blanca</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10-12</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+          <t>Florero vidrio redondo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22 x 30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>32000</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cambiar agua diariamente, mantener en lugar fresco, eliminar polen de lirios</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>sueno-blanco.jpg</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
@@ -601,28 +649,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Con Florero</t>
+          <t>Amarillo, Naranja, Rosado, Morado</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Gerbera, Alstroemeria, Rosa, Solidago</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15-18</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+          <t>Florero vidrio grande</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>30 x 40</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>42000</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cambiar agua cada 2-3 días, exposición luz indirecta, agregar nutriente floral</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>jardin-primaveral.jpg</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
@@ -646,28 +709,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Con Florero</t>
+          <t>Rosado, Verde, Blanco</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rosado, Verde</t>
+          <t>Rosa rosada, Eucalipto, Solidago</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+          <t>Florero cerámica blanco</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20 x 35</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>38000</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cambiar agua cada 2 días, cortar 1cm de tallo cada 3 días, ambiente fresco</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>elegancia-rosa.jpg</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
@@ -691,28 +769,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Con Florero</t>
+          <t>Amarillo, Naranja, Verde</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Amarillo, Naranja</t>
+          <t>Girasol, Gerbera naranja, Solidago</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8-10</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+          <t>Florero vidrio cilíndrico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>28 x 38</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>30000</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cambiar agua diariamente, requiere buena luz, girasoles duran 7-10 días</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>sol-radiante.jpg</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
@@ -736,28 +829,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Con Florero</t>
+          <t>Blanco, Rosado, Verde</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Blanco, Rosado</t>
+          <t>Lirio blanco, Lirio rosado, Eucalipto</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+          <t>Florero vidrio burbuja</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>25 x 40</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>45000</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cambiar agua cada 2 días, quitar polen para evitar manchas, cortar en diagonal</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>dulce-lirio.jpg</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
@@ -781,28 +889,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Con Canasto</t>
+          <t>Multicolor natural</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Mix de temporada, Gerbera, Alstroemeria, Follaje</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>20-25</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+          <t>Canasto mimbre rectangular</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>35 x 25</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>48000</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Verificar nivel de agua en esponja, rociar flores 1 vez al día</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>campo-silvestre.jpg</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
@@ -826,28 +949,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Con Macetero</t>
+          <t>Blanco puro</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Orquídea phalaenopsis</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3-5</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+          <t>Macetero cerámica gris</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>18 x 45</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>55000</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Regar 1 vez por semana, luz indirecta brillante, no mojar flores</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>orquidea-imperial.jpg</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
@@ -871,28 +1009,43 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sin Contenedor</t>
+          <t>Rojo intenso, Verde</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rojo</t>
+          <t>Rosa roja, Eucalipto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+          <t>Sin contenedor (ramo)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ø 25</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>28000</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Cortar tallos y colocar en agua inmediatamente, cambiar agua diariamente</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>ramo-clasico.jpg</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
@@ -911,123 +1064,48 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Caja con rosas y chocolates</t>
+          <t>Caja con rosas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Con Caja</t>
+          <t>Rojo, Rosado suave</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rojo, Rosado</t>
+          <t>Rosa roja, Rosa rosada</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+          <t>Caja cuadrada</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>25 x 25</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>65000</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Rociar con agua 1-2 veces al día, no exponer al sol directo</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>amor-eterno.jpg</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PR011</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Naturaleza Viva</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mix de flores de temporada</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Con Canasto</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Multicolor</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>18-20</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>naturaleza-viva.jpg</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PR012</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Serenidad Azul</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Hortensias azules</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Con Macetero</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Azul, Verde</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>serenidad-azul.jpg</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
